--- a/EFF_DICT_DUMMY141516.xlsx
+++ b/EFF_DICT_DUMMY141516.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/insurer-emperical-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB1172F-BA99-7640-A1BD-B5E56FDE3139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E1C9F8-9971-0D4A-A9A1-29DDF0C44E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -263,6 +274,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -322,11 +336,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -667,18 +685,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="30.3984375" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -686,7 +704,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1.01473045732668</v>
       </c>
     </row>
@@ -694,7 +712,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1.0136495417581659</v>
       </c>
     </row>
@@ -702,7 +720,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1.013107799926005</v>
       </c>
     </row>
@@ -710,7 +728,7 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>0.99999999998831623</v>
       </c>
     </row>
@@ -718,7 +736,7 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1.011681478717976</v>
       </c>
     </row>
@@ -726,7 +744,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1.0242829090594729</v>
       </c>
     </row>
@@ -734,7 +752,7 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>0.99999999998722311</v>
       </c>
     </row>
@@ -742,7 +760,7 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>1.000968128286194</v>
       </c>
     </row>
@@ -750,7 +768,7 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>1.0259802880005811</v>
       </c>
     </row>
@@ -758,7 +776,7 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>1.0494109433394181</v>
       </c>
     </row>
@@ -766,7 +784,7 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>0.99999999999601163</v>
       </c>
     </row>
@@ -774,7 +792,7 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>1.0146820372286369</v>
       </c>
     </row>
@@ -782,7 +800,7 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>1.005541521545074</v>
       </c>
     </row>
@@ -790,7 +808,7 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>1.004047192206508</v>
       </c>
     </row>
@@ -798,7 +816,7 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>1.011968024988084</v>
       </c>
     </row>
@@ -806,7 +824,7 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>0.99999999999551203</v>
       </c>
     </row>
@@ -814,7 +832,7 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>1.002123298530508</v>
       </c>
     </row>
@@ -822,7 +840,7 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>1.002497338666946</v>
       </c>
     </row>
@@ -830,7 +848,7 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>1.024167071681519</v>
       </c>
     </row>
@@ -838,7 +856,7 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>1.0033995842726871</v>
       </c>
     </row>
@@ -846,7 +864,7 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>1.0022053755927689</v>
       </c>
     </row>
@@ -854,7 +872,7 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>1.0114370929691581</v>
       </c>
     </row>
@@ -862,7 +880,7 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>1.0457504718459549</v>
       </c>
     </row>
@@ -870,7 +888,7 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>1.0087934388335971</v>
       </c>
     </row>
@@ -878,7 +896,7 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>1.01537054264075</v>
       </c>
     </row>
@@ -886,7 +904,7 @@
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>1.0008141880275481</v>
       </c>
     </row>
@@ -894,7 +912,7 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>1.0002435228537849</v>
       </c>
     </row>
@@ -902,7 +920,7 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>1.0376948449160071</v>
       </c>
     </row>
@@ -910,7 +928,7 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>1.033682168079431</v>
       </c>
     </row>
@@ -918,7 +936,7 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>1.0042268301603721</v>
       </c>
     </row>
@@ -926,7 +944,7 @@
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>0.9999999999542053</v>
       </c>
     </row>
@@ -934,7 +952,7 @@
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>0.99999999999589007</v>
       </c>
     </row>
@@ -942,7 +960,7 @@
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>1.008415291980719</v>
       </c>
     </row>
@@ -950,7 +968,7 @@
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>1.015855789008971</v>
       </c>
     </row>
@@ -958,7 +976,7 @@
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>0.99999999999647271</v>
       </c>
     </row>
@@ -966,7 +984,7 @@
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>1.0511236401578321</v>
       </c>
     </row>
@@ -974,7 +992,7 @@
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>1.0077151496578329</v>
       </c>
     </row>
@@ -982,7 +1000,7 @@
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>1.0087801592407679</v>
       </c>
     </row>
@@ -990,7 +1008,7 @@
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>0.99999999999457856</v>
       </c>
     </row>
@@ -998,7 +1016,7 @@
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>1.021361465846665</v>
       </c>
     </row>
@@ -1006,7 +1024,7 @@
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>0.99999999999615985</v>
       </c>
     </row>
@@ -1014,7 +1032,7 @@
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>1.0026736508385199</v>
       </c>
     </row>
@@ -1022,7 +1040,7 @@
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>1.000538730012559</v>
       </c>
     </row>
@@ -1030,7 +1048,7 @@
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>1.0254507313554651</v>
       </c>
     </row>
@@ -1038,7 +1056,7 @@
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>1.003718587827819</v>
       </c>
     </row>
@@ -1046,7 +1064,7 @@
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>0.99999999998724831</v>
       </c>
     </row>
@@ -1054,7 +1072,7 @@
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>1.0308637434662871</v>
       </c>
     </row>
@@ -1062,7 +1080,7 @@
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>1.0048545614851401</v>
       </c>
     </row>
@@ -1070,7 +1088,7 @@
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>1.0080125169229119</v>
       </c>
     </row>
@@ -1078,7 +1096,7 @@
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>1.0097441176797879</v>
       </c>
     </row>
@@ -1086,7 +1104,7 @@
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>1.0004987923833719</v>
       </c>
     </row>
@@ -1094,7 +1112,7 @@
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>1.0000177220003941</v>
       </c>
     </row>
@@ -1102,7 +1120,7 @@
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>1.039268830463894</v>
       </c>
     </row>
@@ -1110,7 +1128,7 @@
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>1.0513827162667131</v>
       </c>
     </row>
@@ -1118,7 +1136,7 @@
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>1.013164806695644</v>
       </c>
     </row>
@@ -1126,7 +1144,7 @@
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>0.99999999993459177</v>
       </c>
     </row>
@@ -1134,7 +1152,7 @@
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>0.99999999999530664</v>
       </c>
     </row>
@@ -1142,7 +1160,7 @@
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>0.99999999999202172</v>
       </c>
     </row>
@@ -1150,7 +1168,7 @@
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>1.1287319932838811</v>
       </c>
     </row>
@@ -1158,7 +1176,7 @@
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>1.098775895352029</v>
       </c>
     </row>
@@ -1166,7 +1184,7 @@
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>1.060530367233987</v>
       </c>
     </row>
@@ -1174,7 +1192,7 @@
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <v>1.008400811720811</v>
       </c>
     </row>
@@ -1182,7 +1200,7 @@
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="3">
         <v>1.0295542813522069</v>
       </c>
     </row>
@@ -1190,7 +1208,7 @@
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
         <v>1.0056691008692109</v>
       </c>
     </row>
@@ -1198,7 +1216,7 @@
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <v>1.012559045058689</v>
       </c>
     </row>
@@ -1206,7 +1224,7 @@
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>0.99999999999613542</v>
       </c>
     </row>
@@ -1214,7 +1232,7 @@
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="3">
         <v>1.002917762017415</v>
       </c>
     </row>
@@ -1222,7 +1240,7 @@
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
         <v>1.000252558184811</v>
       </c>
     </row>
@@ -1230,7 +1248,7 @@
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>1.0035591188324899</v>
       </c>
     </row>
@@ -1238,7 +1256,7 @@
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
         <v>1.001969253104523</v>
       </c>
     </row>
@@ -1246,7 +1264,7 @@
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <v>1.0191864886901369</v>
       </c>
     </row>
@@ -1254,7 +1272,7 @@
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>1.030305593752358</v>
       </c>
     </row>
@@ -1262,7 +1280,7 @@
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
         <v>1.0051167884536329</v>
       </c>
     </row>
@@ -1270,7 +1288,7 @@
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="3">
         <v>0.99999999998756062</v>
       </c>
     </row>
@@ -1278,7 +1296,7 @@
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
         <v>1.002111840803259</v>
       </c>
     </row>
@@ -1286,7 +1304,7 @@
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
         <v>0.99999999998572597</v>
       </c>
     </row>
@@ -1294,7 +1312,7 @@
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
         <v>0.99999999995238154</v>
       </c>
     </row>
@@ -1302,7 +1320,7 @@
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3">
         <v>1.0784881020687489</v>
       </c>
     </row>

--- a/EFF_DICT_DUMMY141516.xlsx
+++ b/EFF_DICT_DUMMY141516.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/insurer-emperical-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E1C9F8-9971-0D4A-A9A1-29DDF0C44E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CC9656-FA20-8849-82C8-DF2ADA5BCFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27760" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -685,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/EFF_DICT_DUMMY141516.xlsx
+++ b/EFF_DICT_DUMMY141516.xlsx
@@ -1,31 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/insurer-emperical-study/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CC9656-FA20-8849-82C8-DF2ADA5BCFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27760" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -272,32 +256,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="新細明體"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -308,7 +290,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -318,58 +300,73 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -404,108 +401,74 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,54 +492,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -586,7 +548,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -595,7 +557,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -604,7 +566,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -612,10 +574,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -644,7 +606,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -657,13 +619,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -681,650 +642,651 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.3984375" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" style="3" customWidth="1"/>
+    <col min="1" max="1" style="5" width="30.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="22.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
+      <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>1.01473045732668</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>1.0136495417581659</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="4">
+        <v>1.013649541758166</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>1.013107799926005</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.99999999998831623</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="4">
+        <v>0.9999999999883162</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>1.011681478717976</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>1.0242829090594729</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="4">
+        <v>1.024282909059473</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.99999999998722311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="4">
+        <v>0.9999999999872231</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>1.000968128286194</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>1.0259802880005811</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="4">
+        <v>1.025980288000581</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>1.0494109433394181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="4">
+        <v>1.049410943339418</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.99999999999601163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="4">
+        <v>0.9999999999960116</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>1.0146820372286369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="4">
+        <v>1.014682037228637</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>1.005541521545074</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>1.004047192206508</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>1.011968024988084</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <v>0.99999999999551203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="4">
+        <v>0.999999999995512</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>1.002123298530508</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>1.002497338666946</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21.75">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>1.024167071681519</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <v>1.0033995842726871</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="4">
+        <v>1.003399584272687</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
-        <v>1.0022053755927689</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="4">
+        <v>1.002205375592769</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
-        <v>1.0114370929691581</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="4">
+        <v>1.011437092969158</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
-        <v>1.0457504718459549</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="4">
+        <v>1.045750471845955</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
-        <v>1.0087934388335971</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="4">
+        <v>1.008793438833597</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>1.01537054264075</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
-        <v>1.0008141880275481</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="B27" s="4">
+        <v>1.000814188027548</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
-        <v>1.0002435228537849</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="B28" s="4">
+        <v>1.000243522853785</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
-        <v>1.0376948449160071</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="4">
+        <v>1.037694844916007</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>1.033682168079431</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
-        <v>1.0042268301603721</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
+      <c r="B31" s="4">
+        <v>1.004226830160372</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>0.9999999999542053</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
-        <v>0.99999999999589007</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+      <c r="B33" s="4">
+        <v>0.9999999999958901</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>1.008415291980719</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>1.015855789008971</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
-        <v>0.99999999999647271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+      <c r="B36" s="4">
+        <v>0.9999999999964727</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
-        <v>1.0511236401578321</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
+      <c r="B37" s="4">
+        <v>1.051123640157832</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
-        <v>1.0077151496578329</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
+      <c r="B38" s="4">
+        <v>1.007715149657833</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
-        <v>1.0087801592407679</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
+      <c r="B39" s="4">
+        <v>1.008780159240768</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
-        <v>0.99999999999457856</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
+      <c r="B40" s="4">
+        <v>0.9999999999945786</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>1.021361465846665</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="3">
-        <v>0.99999999999615985</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
+      <c r="B42" s="4">
+        <v>0.9999999999961598</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="3">
-        <v>1.0026736508385199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
+      <c r="B43" s="4">
+        <v>1.00267365083852</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <v>1.000538730012559</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="3">
-        <v>1.0254507313554651</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
+      <c r="B45" s="4">
+        <v>1.025450731355465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>1.003718587827819</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="3">
-        <v>0.99999999998724831</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
+      <c r="B47" s="4">
+        <v>0.9999999999872483</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="3">
-        <v>1.0308637434662871</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
+      <c r="B48" s="4">
+        <v>1.030863743466287</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="3">
-        <v>1.0048545614851401</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
+      <c r="B49" s="4">
+        <v>1.00485456148514</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="3">
-        <v>1.0080125169229119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
+      <c r="B50" s="4">
+        <v>1.008012516922912</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="3">
-        <v>1.0097441176797879</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
+      <c r="B51" s="4">
+        <v>1.009744117679788</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="3">
-        <v>1.0004987923833719</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
+      <c r="B52" s="4">
+        <v>1.000498792383372</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="3">
-        <v>1.0000177220003941</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
+      <c r="B53" s="4">
+        <v>1.000017722000394</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <v>1.039268830463894</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="3">
-        <v>1.0513827162667131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
+      <c r="B55" s="4">
+        <v>1.051382716266713</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <v>1.013164806695644</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="3">
-        <v>0.99999999993459177</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
+      <c r="B57" s="4">
+        <v>0.9999999999345918</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="3">
-        <v>0.99999999999530664</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
+      <c r="B58" s="4">
+        <v>0.9999999999953066</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="3">
-        <v>0.99999999999202172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
+      <c r="B59" s="4">
+        <v>0.9999999999920217</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="3">
-        <v>1.1287319932838811</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
+      <c r="B60" s="4">
+        <v>1.128731993283881</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <v>1.098775895352029</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <v>1.060530367233987</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="4">
         <v>1.008400811720811</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="3">
-        <v>1.0295542813522069</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
+      <c r="B64" s="4">
+        <v>1.029554281352207</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="3">
-        <v>1.0056691008692109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
+      <c r="B65" s="4">
+        <v>1.005669100869211</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <v>1.012559045058689</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="3">
-        <v>0.99999999999613542</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
+      <c r="B67" s="4">
+        <v>0.9999999999961354</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <v>1.002917762017415</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <v>1.000252558184811</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="3">
-        <v>1.0035591188324899</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
+      <c r="B70" s="4">
+        <v>1.00355911883249</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="4">
         <v>1.001969253104523</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="3">
-        <v>1.0191864886901369</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
+      <c r="B72" s="4">
+        <v>1.019186488690137</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="4">
         <v>1.030305593752358</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="3">
-        <v>1.0051167884536329</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
+      <c r="B74" s="4">
+        <v>1.005116788453633</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="3">
-        <v>0.99999999998756062</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
+      <c r="B75" s="4">
+        <v>0.9999999999875606</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="4">
         <v>1.002111840803259</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="3">
-        <v>0.99999999998572597</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
+      <c r="B77" s="4">
+        <v>0.999999999985726</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="3">
-        <v>0.99999999995238154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
+      <c r="B78" s="4">
+        <v>0.9999999999523815</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="3">
-        <v>1.0784881020687489</v>
+      <c r="B79" s="4">
+        <v>1.078488102068749</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>